--- a/xlsx/aerob-swim-12min.xlsx
+++ b/xlsx/aerob-swim-12min.xlsx
@@ -4975,9 +4975,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O77">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:O78">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9585,9 +9585,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O77">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:O78">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/aerob-swim-12min.xlsx
+++ b/xlsx/aerob-swim-12min.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="12210"/>
+    <workbookView xWindow="3975" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="lányok" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -84,6 +124,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -484,46 +527,46 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>215</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>240</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>265</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>290</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>315</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>340</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>334</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>354</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>279</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>233</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>187</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>141</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>125</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>93</v>
       </c>
     </row>
@@ -531,46 +574,46 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>219</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>244</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>269</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>294</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>319</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>344</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>338</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>358</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>282</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>236</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>190</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>144</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>130</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>95</v>
       </c>
     </row>
@@ -578,46 +621,46 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>223</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>248</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>273</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>298</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>323</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>348</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>342</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>362</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>286</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>240</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>194</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>148</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>135</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>97</v>
       </c>
     </row>
@@ -625,46 +668,46 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>227</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>252</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>277</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>302</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>327</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>352</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>346</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>366</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>289</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>243</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>197</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>151</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>140</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>100</v>
       </c>
     </row>
@@ -672,46 +715,46 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>231</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>256</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>281</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>306</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>331</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>356</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>350</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>370</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>293</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>247</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>201</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>155</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>145</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>115</v>
       </c>
     </row>
@@ -719,46 +762,46 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>235</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>260</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>285</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>310</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>335</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>360</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>354</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>374</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>297</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>251</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>205</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>159</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>150</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>120</v>
       </c>
     </row>
@@ -766,46 +809,46 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>239</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>264</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>289</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>314</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>339</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>364</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>358</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>378</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>300</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>254</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>208</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>162</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>155</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>125</v>
       </c>
     </row>
@@ -813,46 +856,46 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>243</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>268</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>293</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>318</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>343</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>368</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>362</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>382</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>304</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>258</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>212</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>166</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>160</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>130</v>
       </c>
     </row>
@@ -860,46 +903,46 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>247</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>272</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>297</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>322</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>347</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>372</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>366</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>386</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>307</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>261</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>216</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>170</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>164</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>135</v>
       </c>
     </row>
@@ -907,46 +950,46 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>251</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>276</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>301</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>326</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>351</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>376</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>370</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>390</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>311</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>265</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>219</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>173</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>167</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12">
         <v>140</v>
       </c>
     </row>
@@ -954,46 +997,46 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>255</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>280</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>305</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>330</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>355</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>380</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>374</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>394</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>315</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>269</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>223</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>177</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>170</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>145</v>
       </c>
     </row>
@@ -1001,46 +1044,46 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>259</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>284</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>309</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>334</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>359</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>384</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>378</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>398</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>318</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>272</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>226</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>180</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>173</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14">
         <v>150</v>
       </c>
     </row>
@@ -1048,46 +1091,46 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>263</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>288</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>313</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>338</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>363</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>388</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>382</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>402</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>322</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>276</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>230</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>184</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>176</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>154</v>
       </c>
     </row>
@@ -1095,46 +1138,46 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>267</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>292</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>317</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>342</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>367</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>392</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>384</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>404</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>325</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>279</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>234</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>188</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <v>179</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16">
         <v>157</v>
       </c>
     </row>
@@ -1142,46 +1185,46 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>271</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>296</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>321</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>346</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>371</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>396</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>388</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>408</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>329</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>283</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>237</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>191</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <v>182</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17">
         <v>160</v>
       </c>
     </row>
@@ -1189,46 +1232,46 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>275</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>300</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>325</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>350</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>375</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>400</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>392</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>412</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>333</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>287</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>241</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>195</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18">
         <v>185</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18">
         <v>164</v>
       </c>
     </row>
@@ -1236,46 +1279,46 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>279</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>304</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>329</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>354</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>379</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>404</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>396</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>416</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>336</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>290</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>245</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>199</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <v>188</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19">
         <v>167</v>
       </c>
     </row>
@@ -1283,46 +1326,46 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>283</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>308</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>333</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>358</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>383</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>408</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>400</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>420</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>340</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>294</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>248</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>202</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20">
         <v>191</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20">
         <v>170</v>
       </c>
     </row>
@@ -1330,46 +1373,46 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>287</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>312</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>337</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>362</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>387</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>412</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>404</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>424</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>344</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>298</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>252</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>206</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21">
         <v>194</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21">
         <v>173</v>
       </c>
     </row>
@@ -1377,46 +1420,46 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>291</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>316</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>341</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>366</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>391</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>416</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>408</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>428</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>347</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>301</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
         <v>255</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>209</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22">
         <v>197</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22">
         <v>176</v>
       </c>
     </row>
@@ -1424,46 +1467,46 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>295</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>320</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>345</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>370</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>395</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>420</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>412</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>432</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>351</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23">
         <v>305</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23">
         <v>259</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
         <v>213</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23">
         <v>200</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23">
         <v>179</v>
       </c>
     </row>
@@ -1471,46 +1514,46 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>299</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>324</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>349</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>374</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>399</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>424</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>416</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>436</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>354</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24">
         <v>308</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24">
         <v>263</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
         <v>217</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24">
         <v>203</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24">
         <v>182</v>
       </c>
     </row>
@@ -1518,46 +1561,46 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>303</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>328</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>353</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>378</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>403</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
         <v>428</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>420</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>440</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>358</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25">
         <v>312</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
         <v>266</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
         <v>220</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25">
         <v>206</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25">
         <v>185</v>
       </c>
     </row>
@@ -1565,46 +1608,46 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>307</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>332</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>357</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>382</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>407</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <v>432</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <v>424</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>444</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <v>362</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26">
         <v>316</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26">
         <v>270</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
         <v>224</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26">
         <v>209</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26">
         <v>188</v>
       </c>
     </row>
@@ -1612,46 +1655,46 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>311</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>336</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>361</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>386</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>411</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>436</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>428</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>448</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>365</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27">
         <v>319</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27">
         <v>273</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27">
         <v>227</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27">
         <v>212</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27">
         <v>191</v>
       </c>
     </row>
@@ -1659,46 +1702,46 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>315</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>340</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>365</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>390</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>415</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>440</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>432</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>452</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
         <v>369</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28">
         <v>323</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28">
         <v>277</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
         <v>231</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28">
         <v>215</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28">
         <v>194</v>
       </c>
     </row>
@@ -1706,46 +1749,46 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>319</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>344</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>369</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>394</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>419</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>444</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>436</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>456</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>372</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29">
         <v>326</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29">
         <v>281</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
         <v>235</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
         <v>218</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29">
         <v>197</v>
       </c>
     </row>
@@ -1753,46 +1796,46 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>323</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>348</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>373</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>398</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>423</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>448</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>440</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>460</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>376</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <v>330</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <v>284</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
         <v>238</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <v>221</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30">
         <v>200</v>
       </c>
     </row>
@@ -1800,46 +1843,46 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>327</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>352</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>377</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>402</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>427</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>452</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>444</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>464</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
         <v>380</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31">
         <v>334</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31">
         <v>288</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
         <v>242</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31">
         <v>224</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31">
         <v>203</v>
       </c>
     </row>
@@ -1847,46 +1890,46 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>331</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>356</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>381</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>406</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>431</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>456</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>448</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>468</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
         <v>383</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32">
         <v>337</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32">
         <v>292</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32">
         <v>246</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32">
         <v>227</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32">
         <v>206</v>
       </c>
     </row>
@@ -1894,46 +1937,46 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>335</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>360</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>385</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>410</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>435</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>460</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>452</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>472</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>387</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33">
         <v>341</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33">
         <v>295</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33">
         <v>249</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33">
         <v>230</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33">
         <v>209</v>
       </c>
     </row>
@@ -1941,46 +1984,46 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>339</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>364</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>389</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>414</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>439</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>464</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>456</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>476</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34">
         <v>390</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34">
         <v>344</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34">
         <v>299</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34">
         <v>253</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34">
         <v>233</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34">
         <v>212</v>
       </c>
     </row>
@@ -1988,46 +2031,46 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>343</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>368</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>393</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>418</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>443</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>468</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>460</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>480</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
         <v>394</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35">
         <v>348</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35">
         <v>302</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35">
         <v>256</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35">
         <v>236</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35">
         <v>215</v>
       </c>
     </row>
@@ -2035,46 +2078,46 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>347</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>372</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>397</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>422</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>447</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>472</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>464</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>484</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36">
         <v>398</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36">
         <v>352</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36">
         <v>306</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36">
         <v>260</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36">
         <v>239</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36">
         <v>218</v>
       </c>
     </row>
@@ -2082,46 +2125,46 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>351</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>376</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>401</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>426</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>451</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>476</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
         <v>470</v>
       </c>
-      <c r="I37" s="1">
-        <v>488</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37">
+        <v>486</v>
+      </c>
+      <c r="J37">
         <v>401</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37">
         <v>355</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37">
         <v>310</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37">
         <v>264</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37">
         <v>242</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37">
         <v>221</v>
       </c>
     </row>
@@ -2129,46 +2172,46 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>355</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>380</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>405</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>430</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>455</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>480</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>474</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>490</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
         <v>405</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38">
         <v>359</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38">
         <v>313</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38">
         <v>267</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38">
         <v>245</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38">
         <v>224</v>
       </c>
     </row>
@@ -2176,46 +2219,46 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>359</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>384</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>409</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>434</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>459</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>484</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>476</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>494</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39">
         <v>408</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39">
         <v>362</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39">
         <v>317</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39">
         <v>271</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39">
         <v>248</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39">
         <v>227</v>
       </c>
     </row>
@@ -2223,46 +2266,46 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>363</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>388</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>413</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>438</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>463</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>488</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>480</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>498</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40">
         <v>412</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40">
         <v>366</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40">
         <v>321</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40">
         <v>275</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40">
         <v>252</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40">
         <v>230</v>
       </c>
     </row>
@@ -2270,46 +2313,46 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>367</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>392</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>417</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>442</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>467</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>492</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
         <v>484</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>502</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
         <v>416</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41">
         <v>370</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41">
         <v>324</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41">
         <v>278</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41">
         <v>255</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41">
         <v>233</v>
       </c>
     </row>
@@ -2317,46 +2360,46 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>371</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>396</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>421</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>446</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>471</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>496</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>488</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>506</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42">
         <v>419</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42">
         <v>373</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42">
         <v>328</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42">
         <v>282</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42">
         <v>258</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42">
         <v>236</v>
       </c>
     </row>
@@ -2364,46 +2407,46 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>375</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>400</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>425</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>450</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>475</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>500</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
         <v>492</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>510</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
         <v>423</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43">
         <v>377</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43">
         <v>331</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43">
         <v>285</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43">
         <v>261</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43">
         <v>239</v>
       </c>
     </row>
@@ -2411,46 +2454,46 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>379</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>404</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>429</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>454</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>479</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>504</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>496</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>516</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
         <v>426</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44">
         <v>380</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44">
         <v>335</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44">
         <v>289</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44">
         <v>264</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44">
         <v>242</v>
       </c>
     </row>
@@ -2458,46 +2501,46 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>383</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>408</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>433</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>458</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>483</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>508</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>500</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>520</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>430</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45">
         <v>384</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45">
         <v>339</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45">
         <v>293</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45">
         <v>267</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45">
         <v>245</v>
       </c>
     </row>
@@ -2505,46 +2548,46 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>387</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>412</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>437</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>462</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>487</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>512</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
         <v>504</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>524</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>434</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46">
         <v>388</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46">
         <v>342</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46">
         <v>296</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46">
         <v>270</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46">
         <v>248</v>
       </c>
     </row>
@@ -2552,46 +2595,46 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>391</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>416</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>441</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>466</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>491</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>516</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
         <v>508</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>528</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>437</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47">
         <v>391</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47">
         <v>346</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47">
         <v>300</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47">
         <v>273</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47">
         <v>251</v>
       </c>
     </row>
@@ -2599,46 +2642,46 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>395</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>420</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>445</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>470</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>495</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>520</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
         <v>512</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>530</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>441</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48">
         <v>395</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
         <v>349</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48">
         <v>303</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48">
         <v>276</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48">
         <v>254</v>
       </c>
     </row>
@@ -2646,46 +2689,46 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>399</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>424</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>449</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>474</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>499</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>524</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
         <v>516</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>534</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49">
         <v>444</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49">
         <v>398</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49">
         <v>353</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49">
         <v>307</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49">
         <v>279</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49">
         <v>257</v>
       </c>
     </row>
@@ -2693,46 +2736,46 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>403</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>428</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>453</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>478</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>503</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
         <v>528</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
         <v>520</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>538</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50">
         <v>448</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50">
         <v>402</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50">
         <v>357</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50">
         <v>311</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50">
         <v>282</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50">
         <v>260</v>
       </c>
     </row>
@@ -2740,46 +2783,46 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>407</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>432</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>457</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>482</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>507</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>532</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <v>524</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>542</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51">
         <v>452</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51">
         <v>406</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51">
         <v>360</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51">
         <v>314</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51">
         <v>285</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51">
         <v>263</v>
       </c>
     </row>
@@ -2787,46 +2830,46 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>411</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>436</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>461</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>486</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>511</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>536</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
         <v>528</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>546</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52">
         <v>455</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52">
         <v>409</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52">
         <v>364</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52">
         <v>318</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52">
         <v>288</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52">
         <v>266</v>
       </c>
     </row>
@@ -2834,46 +2877,46 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>415</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>440</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>465</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>490</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>515</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <v>540</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>532</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>550</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53">
         <v>459</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53">
         <v>413</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53">
         <v>368</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53">
         <v>322</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53">
         <v>291</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53">
         <v>269</v>
       </c>
     </row>
@@ -2881,46 +2924,46 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>419</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>444</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>469</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>494</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>519</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
         <v>544</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <v>536</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>554</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54">
         <v>462</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54">
         <v>416</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54">
         <v>371</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54">
         <v>325</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54">
         <v>294</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54">
         <v>272</v>
       </c>
     </row>
@@ -2928,46 +2971,46 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>423</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>448</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>473</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>498</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>523</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <v>548</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <v>540</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>558</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55">
         <v>466</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55">
         <v>420</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55">
         <v>375</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55">
         <v>329</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55">
         <v>297</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55">
         <v>275</v>
       </c>
     </row>
@@ -2975,46 +3018,46 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>427</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>452</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>477</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>502</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>527</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <v>552</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <v>544</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>562</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56">
         <v>470</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56">
         <v>424</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56">
         <v>378</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56">
         <v>332</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56">
         <v>300</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56">
         <v>278</v>
       </c>
     </row>
@@ -3022,46 +3065,46 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>431</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>456</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>481</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>506</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>531</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
         <v>556</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <v>548</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>566</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57">
         <v>473</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57">
         <v>427</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57">
         <v>382</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57">
         <v>336</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57">
         <v>303</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57">
         <v>281</v>
       </c>
     </row>
@@ -3069,46 +3112,46 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>435</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>460</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>485</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>510</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>535</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>560</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
         <v>552</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>570</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58">
         <v>477</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58">
         <v>431</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58">
         <v>386</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58">
         <v>340</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58">
         <v>306</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58">
         <v>284</v>
       </c>
     </row>
@@ -3116,46 +3159,46 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>439</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>464</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>489</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>514</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>539</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>564</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <v>556</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>574</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59">
         <v>481</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59">
         <v>435</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59">
         <v>389</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59">
         <v>343</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59">
         <v>309</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59">
         <v>287</v>
       </c>
     </row>
@@ -3163,46 +3206,46 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>443</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>468</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>493</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>518</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>543</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>568</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <v>560</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>578</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60">
         <v>484</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60">
         <v>438</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60">
         <v>393</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60">
         <v>347</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60">
         <v>312</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60">
         <v>290</v>
       </c>
     </row>
@@ -3210,46 +3253,46 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>447</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>472</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>497</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>522</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>547</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>572</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
         <v>564</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>582</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61">
         <v>488</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61">
         <v>442</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61">
         <v>396</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61">
         <v>350</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61">
         <v>315</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61">
         <v>293</v>
       </c>
     </row>
@@ -3257,46 +3300,46 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>451</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>476</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>501</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>526</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>551</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>576</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
         <v>568</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>586</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62">
         <v>491</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62">
         <v>445</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62">
         <v>400</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62">
         <v>354</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62">
         <v>318</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62">
         <v>295</v>
       </c>
     </row>
@@ -3304,46 +3347,46 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>455</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>480</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>505</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>530</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>555</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>580</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <v>572</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>590</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63">
         <v>495</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63">
         <v>449</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63">
         <v>404</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63">
         <v>358</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63">
         <v>321</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63">
         <v>298</v>
       </c>
     </row>
@@ -3351,46 +3394,46 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>459</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>484</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>509</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>534</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>559</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>584</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64">
         <v>576</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>594</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64">
         <v>499</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64">
         <v>453</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64">
         <v>407</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64">
         <v>361</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64">
         <v>324</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64">
         <v>301</v>
       </c>
     </row>
@@ -3398,46 +3441,46 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>463</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>488</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>513</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>538</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>563</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>588</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
         <v>580</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>598</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65">
         <v>502</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65">
         <v>456</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65">
         <v>411</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65">
         <v>365</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N65">
         <v>327</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65">
         <v>304</v>
       </c>
     </row>
@@ -3445,46 +3488,46 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>467</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>492</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>517</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>542</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
         <v>567</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>592</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
         <v>584</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>602</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66">
         <v>506</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66">
         <v>460</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66">
         <v>415</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66">
         <v>369</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66">
         <v>330</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66">
         <v>307</v>
       </c>
     </row>
@@ -3492,46 +3535,46 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>471</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>496</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>521</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>546</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>571</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>596</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67">
         <v>588</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>606</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67">
         <v>509</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67">
         <v>463</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
         <v>418</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67">
         <v>372</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67">
         <v>333</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67">
         <v>310</v>
       </c>
     </row>
@@ -3539,46 +3582,46 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>475</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>500</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>525</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>550</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>575</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>600</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
         <v>592</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>610</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68">
         <v>513</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68">
         <v>467</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68">
         <v>422</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68">
         <v>376</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68">
         <v>336</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68">
         <v>313</v>
       </c>
     </row>
@@ -3586,46 +3629,46 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>479</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>504</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>529</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>554</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>579</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>604</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
         <v>596</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>614</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69">
         <v>517</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69">
         <v>471</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69">
         <v>425</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69">
         <v>379</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69">
         <v>339</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69">
         <v>317</v>
       </c>
     </row>
@@ -3633,46 +3676,46 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>483</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>508</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>533</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70">
         <v>558</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70">
         <v>583</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>608</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70">
         <v>600</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>618</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70">
         <v>520</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70">
         <v>474</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L70">
         <v>429</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70">
         <v>383</v>
       </c>
-      <c r="N70" s="1">
+      <c r="N70">
         <v>342</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70">
         <v>320</v>
       </c>
     </row>
@@ -3680,46 +3723,46 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>487</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>512</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>537</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>562</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71">
         <v>587</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>612</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71">
         <v>604</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
         <v>622</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71">
         <v>524</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71">
         <v>478</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71">
         <v>433</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71">
         <v>387</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N71">
         <v>345</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71">
         <v>323</v>
       </c>
     </row>
@@ -3727,46 +3770,46 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>491</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>516</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>541</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72">
         <v>566</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
         <v>591</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>616</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72">
         <v>608</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72">
         <v>626</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72">
         <v>527</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72">
         <v>481</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72">
         <v>436</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72">
         <v>390</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N72">
         <v>348</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72">
         <v>326</v>
       </c>
     </row>
@@ -3774,46 +3817,46 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>495</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>520</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>545</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73">
         <v>570</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73">
         <v>595</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>620</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73">
         <v>612</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
         <v>630</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73">
         <v>531</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73">
         <v>485</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73">
         <v>440</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73">
         <v>394</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N73">
         <v>351</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73">
         <v>329</v>
       </c>
     </row>
@@ -3821,46 +3864,46 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>499</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>524</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>549</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74">
         <v>574</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
         <v>599</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>624</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
         <v>616</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>634</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74">
         <v>535</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74">
         <v>489</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74">
         <v>444</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74">
         <v>398</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N74">
         <v>354</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74">
         <v>332</v>
       </c>
     </row>
@@ -3868,46 +3911,46 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>503</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>528</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>553</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75">
         <v>578</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75">
         <v>603</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>628</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75">
         <v>620</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>638</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75">
         <v>538</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75">
         <v>492</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75">
         <v>447</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75">
         <v>401</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75">
         <v>357</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75">
         <v>335</v>
       </c>
     </row>
@@ -3915,46 +3958,46 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>507</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>532</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>557</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76">
         <v>582</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76">
         <v>607</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>632</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76">
         <v>625</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
         <v>642</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76">
         <v>542</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76">
         <v>496</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L76">
         <v>451</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76">
         <v>405</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76">
         <v>360</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76">
         <v>338</v>
       </c>
     </row>
@@ -3962,46 +4005,46 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>511</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>536</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>561</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77">
         <v>586</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77">
         <v>611</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>636</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77">
         <v>630</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
         <v>646</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77">
         <v>545</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77">
         <v>499</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L77">
         <v>454</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77">
         <v>408</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N77">
         <v>363</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77">
         <v>341</v>
       </c>
     </row>
@@ -4009,46 +4052,46 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>515</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>540</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>565</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78">
         <v>590</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78">
         <v>615</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>640</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78">
         <v>635</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
         <v>650</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78">
         <v>549</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78">
         <v>503</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L78">
         <v>458</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78">
         <v>412</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78">
         <v>366</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78">
         <v>344</v>
       </c>
     </row>
@@ -4976,7 +5019,10 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B3:O78">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5094,46 +5140,46 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>282</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>312</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>338</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>366</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>394</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>422</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>428</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>452</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>370</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>324</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>279</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>233</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>195</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>175</v>
       </c>
     </row>
@@ -5141,46 +5187,46 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>286</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>316</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>342</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>370</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>398</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>426</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>432</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>456</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>373</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>327</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>282</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>236</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>200</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>180</v>
       </c>
     </row>
@@ -5188,46 +5234,46 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>290</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>320</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>346</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>374</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>402</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>430</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>436</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>460</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>377</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>331</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>286</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>240</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>210</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>185</v>
       </c>
     </row>
@@ -5235,46 +5281,46 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>294</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>324</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>350</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>378</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>406</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>434</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>440</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>464</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>380</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>334</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>289</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>243</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>215</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>190</v>
       </c>
     </row>
@@ -5282,46 +5328,46 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>298</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>328</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>354</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>382</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>410</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>438</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>444</v>
       </c>
-      <c r="I7" s="1">
-        <v>468</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7">
+        <v>478</v>
+      </c>
+      <c r="J7">
         <v>384</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>338</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>293</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>247</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>220</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>195</v>
       </c>
     </row>
@@ -5329,46 +5375,46 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>302</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>332</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>358</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>386</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>414</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>442</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>448</v>
       </c>
-      <c r="I8" s="1">
-        <v>472</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8">
+        <v>480</v>
+      </c>
+      <c r="J8">
         <v>388</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>342</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>297</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>251</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>225</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>200</v>
       </c>
     </row>
@@ -5376,46 +5422,46 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>306</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>336</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>362</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>390</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>418</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>446</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>452</v>
       </c>
-      <c r="I9" s="1">
-        <v>476</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9">
+        <v>482</v>
+      </c>
+      <c r="J9">
         <v>391</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>345</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>300</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>254</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>230</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>210</v>
       </c>
     </row>
@@ -5423,46 +5469,46 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>310</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>340</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>366</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>394</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>422</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>450</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>456</v>
       </c>
-      <c r="I10" s="1">
-        <v>480</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10">
+        <v>484</v>
+      </c>
+      <c r="J10">
         <v>395</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>349</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>304</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>258</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>235</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>215</v>
       </c>
     </row>
@@ -5470,46 +5516,46 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>314</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>344</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>370</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>398</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>426</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>454</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>460</v>
       </c>
-      <c r="I11" s="1">
-        <v>484</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11">
+        <v>486</v>
+      </c>
+      <c r="J11">
         <v>399</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>353</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>308</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>261</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>240</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>220</v>
       </c>
     </row>
@@ -5517,46 +5563,46 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>318</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>348</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>374</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>402</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>430</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>458</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>464</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>488</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>402</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>356</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>311</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>265</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>245</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12">
         <v>225</v>
       </c>
     </row>
@@ -5564,46 +5610,46 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>322</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>352</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>378</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>406</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>434</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>462</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>470</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>492</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>406</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>360</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>315</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>269</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>250</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>230</v>
       </c>
     </row>
@@ -5611,46 +5657,46 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>326</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>356</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>382</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>410</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>438</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>466</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>474</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>496</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>409</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>363</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>318</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>272</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>255</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14">
         <v>235</v>
       </c>
     </row>
@@ -5658,46 +5704,46 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>330</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>360</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>386</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>414</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>442</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>470</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>476</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>500</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>413</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>367</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>322</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>276</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>260</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>240</v>
       </c>
     </row>
@@ -5705,46 +5751,46 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>334</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>364</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>390</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>418</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>446</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>474</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>480</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>504</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>417</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>371</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>326</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>279</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <v>265</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16">
         <v>245</v>
       </c>
     </row>
@@ -5752,46 +5798,46 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>338</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>368</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>394</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>422</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>450</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>478</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>484</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>508</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>420</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>374</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>329</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>283</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <v>270</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17">
         <v>250</v>
       </c>
     </row>
@@ -5799,46 +5845,46 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>342</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>372</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>398</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>426</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>454</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>482</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>488</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>512</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>424</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>378</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>333</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>287</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18">
         <v>275</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18">
         <v>255</v>
       </c>
     </row>
@@ -5846,46 +5892,46 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>346</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>376</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>402</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>430</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>458</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>486</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>492</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>516</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>428</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>382</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>337</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>290</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <v>278</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19">
         <v>260</v>
       </c>
     </row>
@@ -5893,46 +5939,46 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>350</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>380</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>406</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>434</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>462</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>490</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>496</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>520</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>431</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>385</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>340</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>294</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20">
         <v>282</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20">
         <v>265</v>
       </c>
     </row>
@@ -5940,46 +5986,46 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>354</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>384</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>410</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>438</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>466</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>494</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>500</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>524</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>435</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>389</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>344</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>298</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21">
         <v>286</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21">
         <v>270</v>
       </c>
     </row>
@@ -5987,46 +6033,46 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>358</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>388</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>414</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>442</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>470</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>498</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>504</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>528</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>438</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>392</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
         <v>347</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>301</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22">
         <v>290</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22">
         <v>275</v>
       </c>
     </row>
@@ -6034,46 +6080,46 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>362</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>392</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>418</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>446</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>474</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>502</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>508</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>532</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>442</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23">
         <v>396</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23">
         <v>351</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
         <v>305</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23">
         <v>295</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23">
         <v>278</v>
       </c>
     </row>
@@ -6081,46 +6127,46 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>366</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>396</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>422</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>450</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>478</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>506</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>512</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>536</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>446</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24">
         <v>400</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24">
         <v>355</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
         <v>308</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24">
         <v>300</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24">
         <v>282</v>
       </c>
     </row>
@@ -6128,46 +6174,46 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>370</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>400</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>426</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>454</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>482</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
         <v>510</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>516</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>540</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>449</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25">
         <v>403</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
         <v>358</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
         <v>312</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25">
         <v>304</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25">
         <v>286</v>
       </c>
     </row>
@@ -6175,46 +6221,46 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>374</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>404</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>430</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>458</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>486</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <v>514</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <v>520</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>544</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <v>453</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26">
         <v>407</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26">
         <v>362</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
         <v>316</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26">
         <v>308</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26">
         <v>290</v>
       </c>
     </row>
@@ -6222,46 +6268,46 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>378</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>408</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>434</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>462</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>490</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>518</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>524</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>548</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>456</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27">
         <v>410</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27">
         <v>365</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27">
         <v>319</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27">
         <v>312</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27">
         <v>295</v>
       </c>
     </row>
@@ -6269,46 +6315,46 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>382</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>412</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>438</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>466</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>494</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>522</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>528</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>552</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
         <v>460</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28">
         <v>414</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28">
         <v>369</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
         <v>323</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28">
         <v>315</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28">
         <v>300</v>
       </c>
     </row>
@@ -6316,46 +6362,46 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>386</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>416</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>442</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>470</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>498</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>526</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>532</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>556</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>464</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29">
         <v>418</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29">
         <v>373</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
         <v>326</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
         <v>318</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29">
         <v>304</v>
       </c>
     </row>
@@ -6363,46 +6409,46 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>390</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>420</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>446</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>474</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>502</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>530</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>536</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>560</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>467</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <v>421</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <v>376</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
         <v>330</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <v>324</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30">
         <v>308</v>
       </c>
     </row>
@@ -6410,46 +6456,46 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>394</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>424</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>450</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>478</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>506</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>534</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>540</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>564</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
         <v>471</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31">
         <v>425</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31">
         <v>380</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
         <v>334</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31">
         <v>328</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31">
         <v>312</v>
       </c>
     </row>
@@ -6457,46 +6503,46 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>398</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>428</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>454</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>482</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>510</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>538</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>544</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>568</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
         <v>475</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32">
         <v>429</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32">
         <v>384</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32">
         <v>337</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32">
         <v>332</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32">
         <v>315</v>
       </c>
     </row>
@@ -6504,46 +6550,46 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>402</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>432</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>458</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>486</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>514</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>542</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>548</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>572</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>478</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33">
         <v>432</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33">
         <v>387</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33">
         <v>341</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33">
         <v>335</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33">
         <v>318</v>
       </c>
     </row>
@@ -6551,46 +6597,46 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>406</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>436</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>462</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>490</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>518</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>546</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>552</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>576</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34">
         <v>482</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34">
         <v>436</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34">
         <v>391</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34">
         <v>344</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34">
         <v>339</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34">
         <v>324</v>
       </c>
     </row>
@@ -6598,46 +6644,46 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>410</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>440</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>466</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>494</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>522</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>550</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>556</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>580</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
         <v>485</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35">
         <v>439</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35">
         <v>394</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35">
         <v>348</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35">
         <v>341</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35">
         <v>328</v>
       </c>
     </row>
@@ -6645,46 +6691,46 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>414</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>444</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>470</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>498</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>526</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>554</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>560</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>584</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36">
         <v>489</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36">
         <v>443</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36">
         <v>398</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36">
         <v>352</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36">
         <v>344</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36">
         <v>332</v>
       </c>
     </row>
@@ -6692,46 +6738,46 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>418</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>448</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>474</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>502</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>530</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>558</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
         <v>564</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>588</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37">
         <v>493</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37">
         <v>447</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37">
         <v>402</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37">
         <v>355</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37">
         <v>347</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37">
         <v>335</v>
       </c>
     </row>
@@ -6739,46 +6785,46 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>422</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>452</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>478</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>506</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>534</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>562</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>568</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>592</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
         <v>496</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38">
         <v>450</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38">
         <v>405</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38">
         <v>359</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38">
         <v>349</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38">
         <v>339</v>
       </c>
     </row>
@@ -6786,46 +6832,46 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>426</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>456</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>482</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>510</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>538</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>566</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>572</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>596</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39">
         <v>500</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39">
         <v>454</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39">
         <v>409</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39">
         <v>362</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39">
         <v>352</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39">
         <v>341</v>
       </c>
     </row>
@@ -6833,46 +6879,46 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>430</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>460</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>486</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>514</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>542</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>570</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>576</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>600</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40">
         <v>504</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40">
         <v>458</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40">
         <v>413</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40">
         <v>366</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40">
         <v>355</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40">
         <v>344</v>
       </c>
     </row>
@@ -6880,46 +6926,46 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>434</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>464</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>490</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>518</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>546</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>574</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
         <v>580</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>604</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
         <v>507</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41">
         <v>461</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41">
         <v>416</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41">
         <v>370</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41">
         <v>358</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41">
         <v>347</v>
       </c>
     </row>
@@ -6927,46 +6973,46 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>438</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>468</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>494</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>522</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>550</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>578</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>584</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>608</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42">
         <v>511</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42">
         <v>465</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42">
         <v>420</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42">
         <v>373</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42">
         <v>362</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42">
         <v>350</v>
       </c>
     </row>
@@ -6974,46 +7020,46 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>442</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>472</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>498</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>526</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>554</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>582</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
         <v>588</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>612</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
         <v>514</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43">
         <v>468</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43">
         <v>423</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43">
         <v>377</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43">
         <v>366</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43">
         <v>354</v>
       </c>
     </row>
@@ -7021,46 +7067,46 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>446</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>476</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>502</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>530</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>558</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>586</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>592</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>616</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
         <v>518</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44">
         <v>472</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44">
         <v>427</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44">
         <v>380</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44">
         <v>370</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44">
         <v>357</v>
       </c>
     </row>
@@ -7068,46 +7114,46 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>450</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>480</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>506</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>534</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>562</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>590</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>596</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>620</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>522</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45">
         <v>476</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45">
         <v>431</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45">
         <v>384</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45">
         <v>374</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45">
         <v>360</v>
       </c>
     </row>
@@ -7115,46 +7161,46 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>454</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>484</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>510</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>538</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>566</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>594</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
         <v>600</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>624</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>525</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46">
         <v>479</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46">
         <v>434</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46">
         <v>388</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46">
         <v>378</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46">
         <v>363</v>
       </c>
     </row>
@@ -7162,46 +7208,46 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>458</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>488</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>514</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>542</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>570</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>598</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
         <v>604</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>628</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>529</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47">
         <v>483</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47">
         <v>438</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47">
         <v>391</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47">
         <v>382</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47">
         <v>366</v>
       </c>
     </row>
@@ -7209,46 +7255,46 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>462</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>492</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>518</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>546</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>574</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>602</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
         <v>608</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>632</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>532</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48">
         <v>486</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
         <v>441</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48">
         <v>395</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48">
         <v>386</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48">
         <v>370</v>
       </c>
     </row>
@@ -7256,46 +7302,46 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>466</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>496</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>522</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>550</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
         <v>578</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
         <v>606</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
         <v>612</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>636</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49">
         <v>536</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49">
         <v>490</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49">
         <v>445</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49">
         <v>398</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49">
         <v>390</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49">
         <v>374</v>
       </c>
     </row>
@@ -7303,46 +7349,46 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>470</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>500</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>526</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>554</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50">
         <v>582</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
         <v>610</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
         <v>616</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>640</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50">
         <v>540</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50">
         <v>494</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50">
         <v>449</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50">
         <v>402</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50">
         <v>394</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50">
         <v>378</v>
       </c>
     </row>
@@ -7350,46 +7396,46 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>474</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>504</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>530</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>558</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>586</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>614</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <v>620</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>644</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51">
         <v>543</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51">
         <v>497</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51">
         <v>452</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51">
         <v>406</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51">
         <v>397</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51">
         <v>382</v>
       </c>
     </row>
@@ -7397,46 +7443,46 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>478</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>508</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>534</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>562</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>590</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>618</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
         <v>624</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>648</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52">
         <v>547</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52">
         <v>501</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52">
         <v>456</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52">
         <v>409</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52">
         <v>400</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52">
         <v>386</v>
       </c>
     </row>
@@ -7444,46 +7490,46 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>482</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>512</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>538</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>566</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>594</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <v>622</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>628</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>652</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53">
         <v>551</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53">
         <v>505</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53">
         <v>460</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53">
         <v>413</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53">
         <v>404</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53">
         <v>390</v>
       </c>
     </row>
@@ -7491,46 +7537,46 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>486</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>516</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>542</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>570</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>598</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
         <v>626</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <v>632</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>656</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54">
         <v>554</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54">
         <v>508</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54">
         <v>463</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54">
         <v>416</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54">
         <v>408</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54">
         <v>394</v>
       </c>
     </row>
@@ -7538,46 +7584,46 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>490</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>520</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>546</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>574</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>602</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <v>630</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <v>636</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>660</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55">
         <v>558</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55">
         <v>512</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55">
         <v>467</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55">
         <v>420</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55">
         <v>412</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55">
         <v>397</v>
       </c>
     </row>
@@ -7585,46 +7631,46 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>494</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>524</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>550</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>578</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>606</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <v>634</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <v>640</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>664</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56">
         <v>561</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56">
         <v>515</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56">
         <v>470</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56">
         <v>424</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56">
         <v>416</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56">
         <v>400</v>
       </c>
     </row>
@@ -7632,46 +7678,46 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>498</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>528</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>554</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>582</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>610</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
         <v>638</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <v>644</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>668</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57">
         <v>565</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57">
         <v>519</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57">
         <v>474</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57">
         <v>427</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57">
         <v>420</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57">
         <v>404</v>
       </c>
     </row>
@@ -7679,46 +7725,46 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>502</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>532</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>558</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>586</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>614</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>642</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
         <v>648</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>672</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58">
         <v>569</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58">
         <v>523</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58">
         <v>478</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58">
         <v>431</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58">
         <v>424</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58">
         <v>408</v>
       </c>
     </row>
@@ -7726,46 +7772,46 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>506</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>536</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>562</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>590</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>618</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>646</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <v>652</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>676</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59">
         <v>572</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59">
         <v>526</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59">
         <v>481</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59">
         <v>435</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59">
         <v>428</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59">
         <v>412</v>
       </c>
     </row>
@@ -7773,46 +7819,46 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>510</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>540</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>566</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>594</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>622</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>650</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <v>656</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>680</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60">
         <v>576</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60">
         <v>530</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60">
         <v>485</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60">
         <v>438</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60">
         <v>432</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60">
         <v>416</v>
       </c>
     </row>
@@ -7820,46 +7866,46 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>514</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>544</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>570</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>598</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>626</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>654</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
         <v>660</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>684</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61">
         <v>579</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61">
         <v>533</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61">
         <v>488</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61">
         <v>442</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61">
         <v>436</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61">
         <v>420</v>
       </c>
     </row>
@@ -7867,46 +7913,46 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>518</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>548</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>574</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>602</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>630</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>658</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
         <v>664</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>688</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62">
         <v>583</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62">
         <v>537</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62">
         <v>492</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62">
         <v>445</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62">
         <v>440</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62">
         <v>424</v>
       </c>
     </row>
@@ -7914,46 +7960,46 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>522</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>552</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>578</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>606</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>634</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>662</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <v>668</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>692</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63">
         <v>587</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63">
         <v>541</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63">
         <v>496</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63">
         <v>449</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63">
         <v>444</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63">
         <v>428</v>
       </c>
     </row>
@@ -7961,46 +8007,46 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>526</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>556</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>582</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>610</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>638</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>666</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64">
         <v>672</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>696</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64">
         <v>590</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64">
         <v>544</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64">
         <v>499</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64">
         <v>453</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64">
         <v>448</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64">
         <v>432</v>
       </c>
     </row>
@@ -8008,46 +8054,46 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>530</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>560</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>586</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>614</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>642</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>670</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
         <v>676</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>700</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65">
         <v>594</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65">
         <v>548</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65">
         <v>503</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65">
         <v>456</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N65">
         <v>452</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65">
         <v>436</v>
       </c>
     </row>
@@ -8055,46 +8101,46 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>534</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>564</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>590</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>618</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
         <v>646</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>674</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
         <v>680</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>704</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66">
         <v>598</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66">
         <v>552</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66">
         <v>507</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66">
         <v>460</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66">
         <v>456</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66">
         <v>440</v>
       </c>
     </row>
@@ -8102,46 +8148,46 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>538</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>568</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>594</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>622</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>650</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>678</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67">
         <v>684</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>708</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67">
         <v>601</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67">
         <v>555</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
         <v>510</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67">
         <v>463</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67">
         <v>460</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67">
         <v>444</v>
       </c>
     </row>
@@ -8149,46 +8195,46 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>542</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>572</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>598</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>626</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>654</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>682</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
         <v>688</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>712</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68">
         <v>605</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68">
         <v>559</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68">
         <v>514</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68">
         <v>467</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68">
         <v>463</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68">
         <v>448</v>
       </c>
     </row>
@@ -8196,46 +8242,46 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>546</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>576</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>602</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>630</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>658</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>686</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
         <v>692</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>716</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69">
         <v>608</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69">
         <v>562</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69">
         <v>517</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69">
         <v>471</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69">
         <v>465</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69">
         <v>452</v>
       </c>
     </row>
@@ -8243,46 +8289,46 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>550</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>580</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>606</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70">
         <v>634</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70">
         <v>662</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>690</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70">
         <v>696</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>720</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70">
         <v>612</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70">
         <v>566</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L70">
         <v>521</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70">
         <v>474</v>
       </c>
-      <c r="N70" s="1">
+      <c r="N70">
         <v>470</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70">
         <v>456</v>
       </c>
     </row>
@@ -8290,46 +8336,46 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>554</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>584</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>610</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>638</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71">
         <v>666</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
         <v>694</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71">
         <v>700</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
         <v>725</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71">
         <v>616</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71">
         <v>570</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71">
         <v>525</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71">
         <v>478</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N71">
         <v>474</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71">
         <v>460</v>
       </c>
     </row>
@@ -8337,46 +8383,46 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>558</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>588</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>614</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72">
         <v>642</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
         <v>670</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
         <v>698</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72">
         <v>704</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72">
         <v>730</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72">
         <v>619</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72">
         <v>573</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72">
         <v>528</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72">
         <v>481</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N72">
         <v>478</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72">
         <v>463</v>
       </c>
     </row>
@@ -8384,46 +8430,46 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>562</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>592</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>618</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73">
         <v>646</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73">
         <v>674</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
         <v>702</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73">
         <v>708</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
         <v>734</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73">
         <v>623</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73">
         <v>577</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73">
         <v>532</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73">
         <v>485</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N73">
         <v>482</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73">
         <v>465</v>
       </c>
     </row>
@@ -8431,46 +8477,46 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>566</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>596</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>622</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74">
         <v>650</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
         <v>678</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>706</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
         <v>712</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>738</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74">
         <v>627</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74">
         <v>581</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74">
         <v>536</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74">
         <v>489</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N74">
         <v>485</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74">
         <v>470</v>
       </c>
     </row>
@@ -8478,46 +8524,46 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>570</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>600</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>626</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75">
         <v>654</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75">
         <v>682</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>710</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75">
         <v>716</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>742</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75">
         <v>630</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75">
         <v>584</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75">
         <v>539</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75">
         <v>492</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75">
         <v>489</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75">
         <v>474</v>
       </c>
     </row>
@@ -8525,46 +8571,46 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>574</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>604</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>630</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76">
         <v>658</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76">
         <v>686</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>714</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76">
         <v>720</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
         <v>746</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76">
         <v>634</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76">
         <v>588</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L76">
         <v>543</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76">
         <v>496</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76">
         <v>492</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76">
         <v>478</v>
       </c>
     </row>
@@ -8572,46 +8618,46 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>578</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>608</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>634</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77">
         <v>662</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77">
         <v>690</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>718</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77">
         <v>725</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
         <v>750</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77">
         <v>637</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77">
         <v>591</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L77">
         <v>546</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77">
         <v>499</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N77">
         <v>495</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77">
         <v>482</v>
       </c>
     </row>
@@ -8619,46 +8665,46 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>582</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>612</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>638</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78">
         <v>666</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78">
         <v>694</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>722</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78">
         <v>730</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
         <v>754</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78">
         <v>641</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78">
         <v>595</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L78">
         <v>550</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78">
         <v>503</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78">
         <v>500</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78">
         <v>485</v>
       </c>
     </row>
@@ -9586,7 +9632,10 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B3:O78">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
